--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.8624074166245567</v>
+        <v>-0.9310486228775472</v>
       </c>
       <c r="D2">
-        <v>0.3885865193229638</v>
+        <v>0.3619335799283108</v>
       </c>
       <c r="E2">
         <v>1.1091006572983</v>
@@ -464,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1628617556397621</v>
+        <v>0.138406833522296</v>
       </c>
       <c r="D3">
-        <v>0.8706468819049649</v>
+        <v>0.8911779709330114</v>
       </c>
       <c r="E3">
         <v>1.1091006572983</v>
@@ -490,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.038626570493543</v>
+        <v>0.89393404185339</v>
       </c>
       <c r="D4">
-        <v>0.299127990364535</v>
+        <v>0.3810327363097101</v>
       </c>
       <c r="E4">
         <v>1.1091006572983</v>
@@ -516,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.3100641850167157</v>
+        <v>0.2704347423026691</v>
       </c>
       <c r="D5">
-        <v>0.7565506272171296</v>
+        <v>0.7893466636286499</v>
       </c>
       <c r="E5">
         <v>1.1091006572983</v>
@@ -542,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.8319021399740593</v>
+        <v>0.7209216754196497</v>
       </c>
       <c r="D6">
-        <v>0.405582483192882</v>
+        <v>0.478549207354106</v>
       </c>
       <c r="E6">
         <v>1.148510863704378</v>
@@ -568,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.746029801734957</v>
+        <v>2.197211383216863</v>
       </c>
       <c r="D7">
-        <v>0.08098866476112043</v>
+        <v>0.03883072318088576</v>
       </c>
       <c r="E7">
         <v>1.148510863704378</v>
@@ -580,7 +583,7 @@
         <v>1.059559215525703</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -594,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.095791708733418</v>
+        <v>1.021830866778255</v>
       </c>
       <c r="D8">
-        <v>0.2733270898829931</v>
+        <v>0.3179666917529407</v>
       </c>
       <c r="E8">
         <v>1.148510863704378</v>
@@ -620,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.8077200949494766</v>
+        <v>0.5570140928567286</v>
       </c>
       <c r="D9">
-        <v>0.4193661482182609</v>
+        <v>0.5831407916316635</v>
       </c>
       <c r="E9">
         <v>1.101212778235517</v>
@@ -646,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.1596216036940154</v>
+        <v>0.1678486005809995</v>
       </c>
       <c r="D10">
-        <v>0.8731983590580119</v>
+        <v>0.868235815161116</v>
       </c>
       <c r="E10">
         <v>1.101212778235517</v>
@@ -672,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5923576958337209</v>
+        <v>-0.5698919051348892</v>
       </c>
       <c r="D11">
-        <v>0.5536908500438886</v>
+        <v>0.5745251345366456</v>
       </c>
       <c r="E11">
         <v>1.059559215525703</v>
